--- a/Input/Cigna_Global_Health/addon22.xlsx
+++ b/Input/Cigna_Global_Health/addon22.xlsx
@@ -8,8 +8,8 @@
     <sheet name="Dental-Addon" sheetId="3" r:id="rId3"/>
     <sheet name="Wellness-info" sheetId="4" r:id="rId4"/>
     <sheet name="Wellness-Addon" sheetId="5" r:id="rId5"/>
-    <sheet name="Emergency-Evacuation-info" sheetId="6" r:id="rId6"/>
-    <sheet name="Emergency-Evacuation-Addon" sheetId="7" r:id="rId7"/>
+    <sheet name="Repatriation-Benefit-info" sheetId="6" r:id="rId6"/>
+    <sheet name="Repatriation-Benefit-Addon" sheetId="7" r:id="rId7"/>
     <sheet name="Optical-info" sheetId="8" r:id="rId8"/>
     <sheet name="Out-patient_Consultations-info" sheetId="9" r:id="rId9"/>
     <sheet name="Out-patient_Specialists-info" sheetId="10" r:id="rId10"/>
@@ -1143,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1167,6 +1167,9 @@
       <c r="F1" s="1" t="str">
         <v>flag</v>
       </c>
+      <c r="G1" s="1" t="str">
+        <v>plan</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -1187,6 +1190,9 @@
       <c r="F2" s="1" t="str">
         <v>no flag</v>
       </c>
+      <c r="G2" s="1" t="str">
+        <v>Platinum</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -1207,10 +1213,59 @@
       <c r="F3" s="1" t="str">
         <v>no flag</v>
       </c>
+      <c r="G3" s="1" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>conditional-fixed</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>Included</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>Preventative-3 months wait Routine- 3 months wait Major Restorative- 12 months wait Orthodontic treatment- 18 months wait</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>False</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>no flag</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v>Gold</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>conditional-fixed</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>Included</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>Preventative-3 months wait Routine- 3 months wait Major Restorative- 12 months wait Orthodontic treatment- 18 months wait</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>False</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <v>no flag</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <v>Platinum</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -24505,7 +24560,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>Emergency-Evacuation-Addon</v>
+        <v>Repatriation-Benefit-Addon</v>
       </c>
       <c r="B2" s="1" t="str">
         <v>conditional-fixed</v>
@@ -24531,7 +24586,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>Emergency-Evacuation-Addon</v>
+        <v>Repatriation-Benefit-Addon</v>
       </c>
       <c r="B3" s="1" t="str">
         <v>conditional-fixed</v>
@@ -24557,7 +24612,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>Emergency-Evacuation-Addon</v>
+        <v>Repatriation-Benefit-Addon</v>
       </c>
       <c r="B4" s="1" t="str">
         <v>conditional-fixed</v>
@@ -24583,7 +24638,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
-        <v>Emergency-Evacuation-Addon</v>
+        <v>Repatriation-Benefit-Addon</v>
       </c>
       <c r="B5" s="1" t="str">
         <v>conditional-fixed</v>

--- a/Input/Cigna_Global_Health/addon22.xlsx
+++ b/Input/Cigna_Global_Health/addon22.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Scans-info" sheetId="13" r:id="rId13"/>
     <sheet name="Physiotherapy-info" sheetId="14" r:id="rId14"/>
     <sheet name="Dental_Waiting_Period-info" sheetId="15" r:id="rId15"/>
+    <sheet name="Emergency-Evacuation-info" sheetId="16" r:id="rId16"/>
   </sheets>
 </workbook>
 </file>
@@ -1270,6 +1271,135 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>type</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>label</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>description</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>default</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>print</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>flag</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>plan</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>conditional-fixed</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>Default</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>Optional Benefit</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <v>False</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <v>no flag</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <v>Platinum</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>conditional-fixed</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>Emergency Evacuation Addon</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <v>Covered with sub-limits</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>False</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <v>-s</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <v>Silver</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>conditional-fixed</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>Emergency Evacuation Addon</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>Covered with sub-limits</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>False</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>-g</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v>Gold</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>conditional-fixed</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>Emergency Evacuation Addon</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>Covered with sub-limits</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>False</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <v>-p</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <v>Platinum</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>

--- a/Input/Cigna_Global_Health/addon22.xlsx
+++ b/Input/Cigna_Global_Health/addon22.xlsx
@@ -1192,9 +1192,6 @@
       <c r="F2" s="1" t="str">
         <v>no flag</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <v>Platinum</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -1321,9 +1318,6 @@
       <c r="F2" s="1" t="str">
         <v>no flag</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <v>Platinum</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -27782,9 +27776,6 @@
       <c r="G2" s="1" t="str">
         <v>no flag</v>
       </c>
-      <c r="H2" s="1" t="str">
-        <v>Platinum</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -59461,9 +59452,6 @@
       <c r="F2" s="1" t="str">
         <v>no flag</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <v>Platinum</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
